--- a/1app/scrap.xlsx
+++ b/1app/scrap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="147">
   <si>
     <t>Title</t>
   </si>
@@ -34,90 +34,168 @@
     <t>Rating&amp; Reviews</t>
   </si>
   <si>
+    <t>realme C20 (Cool Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C20 (Cool Grey, 32 GB)</t>
+  </si>
+  <si>
+    <t>POCO M3 (Cool Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>I Kall Z10 (Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9 Power (Blazing Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9 Power (Mighty Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9 Prime (Space Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO C3 (Arctic Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9i (Midnight Black, 64 GB)</t>
+  </si>
+  <si>
     <t>POCO M3 (Power Black, 64 GB)</t>
   </si>
   <si>
+    <t>realme C21 (Cross Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C21 (Cross Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C21 (Cross Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme C21 (Cross Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9i (Nature Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9 Prime (Matte Black, 64 GB)</t>
+  </si>
+  <si>
     <t>REDMI 9 Prime (Mint Green, 64 GB)</t>
   </si>
   <si>
-    <t>REDMI 9 Prime (Space Blue, 64 GB)</t>
+    <t>Infinix Hot 10S (Heart Of Ocean, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A33 (Moonlight Black, 32 GB)</t>
   </si>
   <si>
     <t>POCO C3 (Matte Black, 32 GB)</t>
   </si>
   <si>
-    <t>realme C25s (Watery Grey, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme C20 (Cool Grey, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme C20 (Cool Blue, 32 GB)</t>
-  </si>
-  <si>
-    <t>REDMI 9 Power (Blazing Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>REDMI 9i (Nature Green, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme C25s (Watery Blue, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme C21 (Cross Black, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme C21 (Cross Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme C21 (Cross Black, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme C21 (Cross Blue, 32 GB)</t>
-  </si>
-  <si>
-    <t>REDMI 9 Power (Mighty Black, 64 GB)</t>
-  </si>
-  <si>
-    <t>REDMI 9 Prime (Matte Black, 64 GB)</t>
-  </si>
-  <si>
-    <t>REDMI 9i (Midnight Black, 64 GB)</t>
+    <t>POCO C3 (Arctic Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme Narzo 30 (Racing Silver, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A53 (Mint Cream, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme 8 5G (Supersonic Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>I Kall Z10 (Pink, 64 GB)</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10S (95° Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10S (7° Purple, 64 GB)</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10S (Morandi Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9 Power (Fiery Red, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme Narzo 30 5G (Racing Silver, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme Narzo 30 5G (Racing Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9 Prime (Sunrise Flare, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO M2 Reloaded (Mostly Blue, 64 GB)</t>
   </si>
   <si>
     <t>Infinix Hot 10 Play (Obsidian Black, 32 GB)</t>
   </si>
   <si>
-    <t>POCO M3 (Cool Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>OPPO A33 (Mint Cream, 32 GB)</t>
-  </si>
-  <si>
-    <t>OPPO A33 (Moonlight Black, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme Narzo 30 (Racing Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme Narzo 30 5G (Racing Blue, 128 GB)</t>
+    <t>OPPO A12 (Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A12 (Deep Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A12 (Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A12 (Flowing Silver, 64 GB)</t>
+  </si>
+  <si>
+    <t>MOTOROLA E7 Power (Coral Red, 64 GB)</t>
+  </si>
+  <si>
+    <t>MOTOROLA G10 Power (Aurora Grey, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI Note 9 (Aqua Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI Note 9 (Scarlet Red, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO M2 Reloaded (Greyish Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO X3 Pro (Steel Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme 8 5G (Supersonic Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>REDMI Note 9 (Pebble Grey, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme 8 (Cyber Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme 8 5G (Supersonic Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹7,999</t>
+  </si>
+  <si>
+    <t>₹11,999</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>₹13,999</t>
+  </si>
+  <si>
+    <t>₹9,999</t>
   </si>
   <si>
     <t>₹12,999</t>
   </si>
   <si>
-    <t>₹11,999</t>
-  </si>
-  <si>
-    <t>₹9,999</t>
-  </si>
-  <si>
-    <t>₹7,999</t>
-  </si>
-  <si>
-    <t>₹13,999</t>
-  </si>
-  <si>
     <t>₹10,999</t>
   </si>
   <si>
@@ -127,112 +205,256 @@
     <t>₹14,999</t>
   </si>
   <si>
+    <t>₹17,990</t>
+  </si>
+  <si>
+    <t>₹16,999</t>
+  </si>
+  <si>
     <t>₹17,999</t>
   </si>
   <si>
+    <t>₹10,990</t>
+  </si>
+  <si>
+    <t>₹11,990</t>
+  </si>
+  <si>
+    <t>₹23,999</t>
+  </si>
+  <si>
+    <t>₹18,999</t>
+  </si>
+  <si>
+    <t>₹15,999</t>
+  </si>
+  <si>
+    <t>₹6,999</t>
+  </si>
+  <si>
+    <t>₹10,499</t>
+  </si>
+  <si>
+    <t>₹7,884</t>
+  </si>
+  <si>
+    <t>₹11,949</t>
+  </si>
+  <si>
+    <t>₹8,499</t>
+  </si>
+  <si>
     <t>₹11,499</t>
   </si>
   <si>
-    <t>₹6,999</t>
-  </si>
-  <si>
-    <t>₹8,499</t>
-  </si>
-  <si>
     <t>₹9,499</t>
   </si>
   <si>
-    <t>₹10,499</t>
-  </si>
-  <si>
     <t>₹9,990</t>
   </si>
   <si>
+    <t>₹8,999</t>
+  </si>
+  <si>
     <t>₹12,499</t>
   </si>
   <si>
-    <t>₹15,999</t>
+    <t>₹13,990</t>
+  </si>
+  <si>
+    <t>₹15,499</t>
+  </si>
+  <si>
+    <t>₹11,942</t>
+  </si>
+  <si>
+    <t>₹8,990</t>
+  </si>
+  <si>
+    <t>₹8,799</t>
+  </si>
+  <si>
+    <t>₹13,998</t>
+  </si>
+  <si>
+    <t>₹17,499</t>
+  </si>
+  <si>
+    <t>₹14,499</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>12% off</t>
+  </si>
+  <si>
+    <t>21% off</t>
+  </si>
+  <si>
+    <t>20% off</t>
+  </si>
+  <si>
+    <t>15% off</t>
+  </si>
+  <si>
     <t>11% off</t>
   </si>
   <si>
+    <t>13% off</t>
+  </si>
+  <si>
     <t>16% off</t>
   </si>
   <si>
-    <t>20% off</t>
-  </si>
-  <si>
-    <t>4% off</t>
-  </si>
-  <si>
-    <t>12% off</t>
-  </si>
-  <si>
-    <t>21% off</t>
-  </si>
-  <si>
-    <t>15% off</t>
-  </si>
-  <si>
-    <t>13% off</t>
-  </si>
-  <si>
     <t>23% off</t>
   </si>
   <si>
-    <t>4.32,87,627 Ratings &amp; 20,726 Reviews</t>
-  </si>
-  <si>
-    <t>4.41,42,574 Ratings &amp; 9,556 Reviews</t>
-  </si>
-  <si>
-    <t>4.32,75,253 Ratings &amp; 19,242 Reviews</t>
-  </si>
-  <si>
-    <t>4.25,015 Ratings &amp; 337 Reviews</t>
-  </si>
-  <si>
-    <t>4.41,09,307 Ratings &amp; 4,904 Reviews</t>
-  </si>
-  <si>
-    <t>4.31,13,291 Ratings &amp; 7,860 Reviews</t>
-  </si>
-  <si>
-    <t>4.33,89,310 Ratings &amp; 22,109 Reviews</t>
-  </si>
-  <si>
-    <t>4.454,891 Ratings &amp; 2,440 Reviews</t>
-  </si>
-  <si>
-    <t>4.445,429 Ratings &amp; 2,206 Reviews</t>
-  </si>
-  <si>
-    <t>4.51,257 Ratings &amp; 54 Reviews</t>
-  </si>
-  <si>
-    <t>4.45,900 Ratings &amp; 335 Reviews</t>
-  </si>
-  <si>
-    <t>4.314,965 Ratings &amp; 962 Reviews</t>
-  </si>
-  <si>
-    <t>4.419,136 Ratings &amp; 1,780 Reviews</t>
-  </si>
-  <si>
-    <t>4.419,887 Ratings &amp; 1,559 Reviews</t>
+    <t>18% off</t>
+  </si>
+  <si>
+    <t>22% off</t>
+  </si>
+  <si>
+    <t>8% off</t>
+  </si>
+  <si>
+    <t>26% off</t>
+  </si>
+  <si>
+    <t>19% off</t>
+  </si>
+  <si>
+    <t>7% off</t>
+  </si>
+  <si>
+    <t>9% off</t>
+  </si>
+  <si>
+    <t>4.41,19,952 Ratings &amp; 5,319 Reviews</t>
+  </si>
+  <si>
+    <t>4.48,735 Ratings &amp; 514 Reviews</t>
+  </si>
+  <si>
+    <t>4.31,18,746 Ratings &amp; 8,214 Reviews</t>
+  </si>
+  <si>
+    <t>4.41,47,070 Ratings &amp; 9,806 Reviews</t>
+  </si>
+  <si>
+    <t>4.32,80,114 Ratings &amp; 19,501 Reviews</t>
+  </si>
+  <si>
+    <t>4.33,95,637 Ratings &amp; 22,446 Reviews</t>
+  </si>
+  <si>
+    <t>4.32,96,442 Ratings &amp; 21,312 Reviews</t>
+  </si>
+  <si>
+    <t>4.447,344 Ratings &amp; 2,297 Reviews</t>
+  </si>
+  <si>
+    <t>4.457,855 Ratings &amp; 2,573 Reviews</t>
+  </si>
+  <si>
+    <t>4.421,276 Ratings &amp; 1,691 Reviews</t>
+  </si>
+  <si>
+    <t>4.316,502 Ratings &amp; 1,028 Reviews</t>
+  </si>
+  <si>
+    <t>4.32,01,713 Ratings &amp; 12,581 Reviews</t>
+  </si>
+  <si>
+    <t>4.421,890 Ratings &amp; 2,035 Reviews</t>
+  </si>
+  <si>
+    <t>4.426,127 Ratings &amp; 1,517 Reviews</t>
+  </si>
+  <si>
+    <t>4.339,055 Ratings &amp; 2,983 Reviews</t>
+  </si>
+  <si>
+    <t>4.41,19,941 Ratings &amp; 5,319 Reviews</t>
+  </si>
+  <si>
+    <t>4.48,732 Ratings &amp; 514 Reviews</t>
+  </si>
+  <si>
+    <t>4.31,18,733 Ratings &amp; 8,213 Reviews</t>
+  </si>
+  <si>
+    <t>4.41,47,063 Ratings &amp; 9,806 Reviews</t>
+  </si>
+  <si>
+    <t>4.32,80,101 Ratings &amp; 19,501 Reviews</t>
+  </si>
+  <si>
+    <t>4.33,95,629 Ratings &amp; 22,446 Reviews</t>
+  </si>
+  <si>
+    <t>4.32,96,428 Ratings &amp; 21,309 Reviews</t>
+  </si>
+  <si>
+    <t>4.447,342 Ratings &amp; 2,297 Reviews</t>
+  </si>
+  <si>
+    <t>4.457,853 Ratings &amp; 2,572 Reviews</t>
+  </si>
+  <si>
+    <t>4.421,272 Ratings &amp; 1,691 Reviews</t>
+  </si>
+  <si>
+    <t>4.32,01,712 Ratings &amp; 12,581 Reviews</t>
+  </si>
+  <si>
+    <t>4.316,502 Ratings &amp; 1,027 Reviews</t>
+  </si>
+  <si>
+    <t>4.422,498 Ratings &amp; 1,752 Reviews</t>
+  </si>
+  <si>
+    <t>4.318,068 Ratings &amp; 1,182 Reviews</t>
+  </si>
+  <si>
+    <t>4.52,062 Ratings &amp; 106 Reviews</t>
+  </si>
+  <si>
+    <t>4.454,329 Ratings &amp; 3,420 Reviews</t>
+  </si>
+  <si>
+    <t>4.431,472 Ratings &amp; 1,423 Reviews</t>
+  </si>
+  <si>
+    <t>4.143,419 Ratings &amp; 3,713 Reviews</t>
+  </si>
+  <si>
+    <t>4.139,000 Ratings &amp; 3,270 Reviews</t>
+  </si>
+  <si>
+    <t>4.387,633 Ratings &amp; 6,508 Reviews</t>
+  </si>
+  <si>
+    <t>4.310,801 Ratings &amp; 938 Reviews</t>
+  </si>
+  <si>
+    <t>4.444,867 Ratings &amp; 3,979 Reviews</t>
+  </si>
+  <si>
+    <t>4.327,655 Ratings &amp; 2,271 Reviews</t>
+  </si>
+  <si>
+    <t>4.349,152 Ratings &amp; 4,549 Reviews</t>
   </si>
 </sst>
 </file>
@@ -590,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,19 +846,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -647,19 +869,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -670,19 +892,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -693,19 +915,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -716,19 +938,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -739,19 +961,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -762,19 +984,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -785,19 +1007,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -808,19 +1030,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -831,19 +1053,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -854,19 +1076,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -877,19 +1099,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -900,19 +1122,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -923,19 +1145,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -946,19 +1168,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -969,19 +1191,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -992,19 +1214,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1015,19 +1237,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1038,19 +1260,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1058,22 +1280,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1081,22 +1303,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1104,22 +1326,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1127,22 +1349,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1150,22 +1372,1126 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="F25" t="s">
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="G25" t="s">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
         <v>72</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
